--- a/Documents/Data/Sport/Category_Sport.xlsx
+++ b/Documents/Data/Sport/Category_Sport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parakoda\Documents\Visual Studio 2015\Projects\BooksLibraryManagement\Category\Category_Sport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Book Infor\BooksLibraryManagement\Category\Category_Sport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7908"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+  <si>
+    <t>Image</t>
+  </si>
   <si>
     <t>Category</t>
   </si>
@@ -54,6 +57,15 @@
   </si>
   <si>
     <t>Price (use to caculate fee in case books be lost)</t>
+  </si>
+  <si>
+    <t>The total number of each type of books</t>
+  </si>
+  <si>
+    <t>The number of books available for rent</t>
+  </si>
+  <si>
+    <t>Describe book condition</t>
   </si>
   <si>
     <t>Penguin Books Ltd</t>
@@ -231,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,10 +252,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,22 +297,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -370,6 +409,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -405,6 +461,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,385 +630,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="20.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22" style="2" customWidth="1"/>
-    <col min="10" max="10" width="66.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="1" customWidth="1"/>
+    <col min="11" max="11" width="66.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="42.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>42664</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1">
+        <v>100</v>
+      </c>
+      <c r="N2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100</v>
+      </c>
+      <c r="N3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2">
+        <v>42692</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1">
+        <v>100</v>
+      </c>
+      <c r="N4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>42677</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2">
+        <v>42521</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="1">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>41585</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+      <c r="N7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2">
+        <v>42551</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="1">
+        <v>100</v>
+      </c>
+      <c r="N8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2">
+        <v>39905</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="2">
+        <v>42644</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4">
-        <v>42664</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="4">
-        <v>42692</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4">
-        <v>42677</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4">
-        <v>42521</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="4">
-        <v>41585</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="4">
-        <v>42551</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="4">
-        <v>39905</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="4">
-        <v>42644</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="I11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="2">
         <v>42645</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>65</v>
+      <c r="K11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.bookdepository.com/author/Lonely-Planet"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://www.bookdepository.com/publishers/Lonely-Planet-Publications-Ltd"/>
+    <hyperlink ref="F3" r:id="rId3" display="https://www.bookdepository.com/author/Paul-Oconnell"/>
+    <hyperlink ref="G3" r:id="rId4" display="https://www.bookdepository.com/publishers/Penguin-Books-Ltd"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://www.bookdepository.com/author/F2-Freestylers"/>
+    <hyperlink ref="G4" r:id="rId6" display="https://www.bookdepository.com/publishers/Bonnier-Books-Ltd"/>
+    <hyperlink ref="F5" r:id="rId7" display="https://www.bookdepository.com/author/Johnny-Herbert"/>
+    <hyperlink ref="G5" r:id="rId8" display="https://www.bookdepository.com/publishers/Transworld-Publishers-Ltd"/>
+    <hyperlink ref="F6" r:id="rId9" display="https://www.bookdepository.com/author/William-Finnegan"/>
+    <hyperlink ref="G6" r:id="rId10" display="https://www.bookdepository.com/publishers/Little-Brown-Book-Group"/>
+    <hyperlink ref="F7" r:id="rId11" display="https://www.bookdepository.com/author/James-Kerr"/>
+    <hyperlink ref="G7" r:id="rId12" display="https://www.bookdepository.com/publishers/Little-Brown-Book-Group"/>
+    <hyperlink ref="F8" r:id="rId13" display="https://www.bookdepository.com/author/John-Kavanagh"/>
+    <hyperlink ref="G8" r:id="rId14" display="https://www.bookdepository.com/publishers/Penguin-Books-Ltd"/>
+    <hyperlink ref="G9" r:id="rId15" display="https://www.bookdepository.com/publishers/Vintage-Publishing"/>
+    <hyperlink ref="F10" r:id="rId16" display="https://www.bookdepository.com/author/Grange-Communications"/>
+    <hyperlink ref="G10" r:id="rId17" display="https://www.bookdepository.com/publishers/Grange-Communications-Ltd"/>
+    <hyperlink ref="F11" r:id="rId18" display="https://www.bookdepository.com/author/Grange-Communications"/>
+    <hyperlink ref="G11" r:id="rId19" display="https://www.bookdepository.com/publishers/Grange-Communications-Ltd"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Documents/Data/Sport/Category_Sport.xlsx
+++ b/Documents/Data/Sport/Category_Sport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Book Infor\BooksLibraryManagement\Category\Category_Sport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\github\LibraryManager\BooksLibraryManagement\Documents\Data\Sport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7908"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>Image</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Author's Name</t>
   </si>
   <si>
@@ -237,12 +234,21 @@
   </si>
   <si>
     <t>Haruki Murakami , Translated by  Philip Gabriel</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,14 +273,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,20 +308,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -630,35 +644,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="1" customWidth="1"/>
-    <col min="11" max="11" width="66.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="42.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="39.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="41.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="1" customWidth="1"/>
+    <col min="12" max="12" width="66.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="39.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="36" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -678,432 +693,515 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="10">
+        <v>9781760340834</v>
+      </c>
+      <c r="I2" s="8">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7">
+        <v>42664</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="4">
+        <v>100</v>
+      </c>
+      <c r="O2" s="4">
+        <v>100</v>
+      </c>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="10">
+        <v>9781844882236</v>
+      </c>
+      <c r="I3" s="8">
+        <v>23.49</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="4">
+        <v>100</v>
+      </c>
+      <c r="O3" s="4">
+        <v>100</v>
+      </c>
+      <c r="P3" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10">
+        <v>9781911274445</v>
+      </c>
+      <c r="I4" s="8">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="7">
+        <v>42692</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="4">
+        <v>100</v>
+      </c>
+      <c r="O4" s="4">
+        <v>100</v>
+      </c>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10">
+        <v>9780593078389</v>
+      </c>
+      <c r="I5" s="8">
+        <v>23.51</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2">
-        <v>42664</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1">
-        <v>100</v>
-      </c>
-      <c r="N2" s="1">
-        <v>100</v>
-      </c>
+      <c r="K5" s="7">
+        <v>42677</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="4">
+        <v>100</v>
+      </c>
+      <c r="O5" s="4">
+        <v>100</v>
+      </c>
+      <c r="P5" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H6" s="10">
+        <v>9781472151414</v>
+      </c>
+      <c r="I6" s="8">
+        <v>10.98</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1">
-        <v>100</v>
-      </c>
-      <c r="N3" s="1">
-        <v>100</v>
-      </c>
+      <c r="K6" s="7">
+        <v>42521</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="4">
+        <v>100</v>
+      </c>
+      <c r="O6" s="4">
+        <v>100</v>
+      </c>
+      <c r="P6" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="1" t="s">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10">
+        <v>9781472103536</v>
+      </c>
+      <c r="I7" s="8">
+        <v>10.39</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="2">
-        <v>42692</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="1">
-        <v>100</v>
-      </c>
-      <c r="N4" s="1">
-        <v>100</v>
-      </c>
+      <c r="K7" s="7">
+        <v>41585</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="4">
+        <v>100</v>
+      </c>
+      <c r="O7" s="4">
+        <v>100</v>
+      </c>
+      <c r="P7" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1" t="s">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="10">
+        <v>9781844883813</v>
+      </c>
+      <c r="I8" s="8">
+        <v>15.09</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7">
+        <v>42551</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="4">
+        <v>100</v>
+      </c>
+      <c r="O8" s="4">
+        <v>100</v>
+      </c>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="10">
+        <v>9780099532538</v>
+      </c>
+      <c r="I9" s="8">
+        <v>6.96</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2">
-        <v>42677</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="1">
-        <v>100</v>
-      </c>
-      <c r="N5" s="1">
-        <v>100</v>
-      </c>
+      <c r="K9" s="7">
+        <v>39905</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="4">
+        <v>100</v>
+      </c>
+      <c r="O9" s="4">
+        <v>100</v>
+      </c>
+      <c r="P9" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2">
-        <v>42521</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="1">
-        <v>100</v>
-      </c>
-      <c r="N6" s="1">
-        <v>100</v>
-      </c>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="10">
+        <v>9781911287087</v>
+      </c>
+      <c r="I10" s="8">
+        <v>6.52</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7">
+        <v>42644</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="4">
+        <v>100</v>
+      </c>
+      <c r="O10" s="4">
+        <v>100</v>
+      </c>
+      <c r="P10" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2">
-        <v>41585</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="1">
-        <v>100</v>
-      </c>
-      <c r="N7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="5" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="2">
-        <v>42551</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="1">
-        <v>100</v>
-      </c>
-      <c r="N8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2">
-        <v>39905</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="1">
-        <v>100</v>
-      </c>
-      <c r="N9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="H11" s="10">
+        <v>9781911287032</v>
+      </c>
+      <c r="I11" s="8">
+        <v>6.86</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="2">
-        <v>42644</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="1">
-        <v>100</v>
-      </c>
-      <c r="N10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="K11" s="7">
+        <v>42645</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="2">
-        <v>42645</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="1">
-        <v>100</v>
-      </c>
-      <c r="N11" s="1">
-        <v>100</v>
-      </c>
+      <c r="N11" s="4">
+        <v>100</v>
+      </c>
+      <c r="O11" s="4">
+        <v>100</v>
+      </c>
+      <c r="P11" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.bookdepository.com/author/Lonely-Planet"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://www.bookdepository.com/publishers/Lonely-Planet-Publications-Ltd"/>
-    <hyperlink ref="F3" r:id="rId3" display="https://www.bookdepository.com/author/Paul-Oconnell"/>
-    <hyperlink ref="G3" r:id="rId4" display="https://www.bookdepository.com/publishers/Penguin-Books-Ltd"/>
-    <hyperlink ref="F4" r:id="rId5" display="https://www.bookdepository.com/author/F2-Freestylers"/>
-    <hyperlink ref="G4" r:id="rId6" display="https://www.bookdepository.com/publishers/Bonnier-Books-Ltd"/>
-    <hyperlink ref="F5" r:id="rId7" display="https://www.bookdepository.com/author/Johnny-Herbert"/>
-    <hyperlink ref="G5" r:id="rId8" display="https://www.bookdepository.com/publishers/Transworld-Publishers-Ltd"/>
-    <hyperlink ref="F6" r:id="rId9" display="https://www.bookdepository.com/author/William-Finnegan"/>
-    <hyperlink ref="G6" r:id="rId10" display="https://www.bookdepository.com/publishers/Little-Brown-Book-Group"/>
-    <hyperlink ref="F7" r:id="rId11" display="https://www.bookdepository.com/author/James-Kerr"/>
-    <hyperlink ref="G7" r:id="rId12" display="https://www.bookdepository.com/publishers/Little-Brown-Book-Group"/>
-    <hyperlink ref="F8" r:id="rId13" display="https://www.bookdepository.com/author/John-Kavanagh"/>
-    <hyperlink ref="G8" r:id="rId14" display="https://www.bookdepository.com/publishers/Penguin-Books-Ltd"/>
-    <hyperlink ref="G9" r:id="rId15" display="https://www.bookdepository.com/publishers/Vintage-Publishing"/>
-    <hyperlink ref="F10" r:id="rId16" display="https://www.bookdepository.com/author/Grange-Communications"/>
-    <hyperlink ref="G10" r:id="rId17" display="https://www.bookdepository.com/publishers/Grange-Communications-Ltd"/>
-    <hyperlink ref="F11" r:id="rId18" display="https://www.bookdepository.com/author/Grange-Communications"/>
-    <hyperlink ref="G11" r:id="rId19" display="https://www.bookdepository.com/publishers/Grange-Communications-Ltd"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.bookdepository.com/author/Lonely-Planet"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://www.bookdepository.com/publishers/Lonely-Planet-Publications-Ltd"/>
+    <hyperlink ref="E3" r:id="rId3" display="https://www.bookdepository.com/author/Paul-Oconnell"/>
+    <hyperlink ref="F3" r:id="rId4" display="https://www.bookdepository.com/publishers/Penguin-Books-Ltd"/>
+    <hyperlink ref="E4" r:id="rId5" display="https://www.bookdepository.com/author/F2-Freestylers"/>
+    <hyperlink ref="F4" r:id="rId6" display="https://www.bookdepository.com/publishers/Bonnier-Books-Ltd"/>
+    <hyperlink ref="E5" r:id="rId7" display="https://www.bookdepository.com/author/Johnny-Herbert"/>
+    <hyperlink ref="F5" r:id="rId8" display="https://www.bookdepository.com/publishers/Transworld-Publishers-Ltd"/>
+    <hyperlink ref="E6" r:id="rId9" display="https://www.bookdepository.com/author/William-Finnegan"/>
+    <hyperlink ref="F6" r:id="rId10" display="https://www.bookdepository.com/publishers/Little-Brown-Book-Group"/>
+    <hyperlink ref="E7" r:id="rId11" display="https://www.bookdepository.com/author/James-Kerr"/>
+    <hyperlink ref="F7" r:id="rId12" display="https://www.bookdepository.com/publishers/Little-Brown-Book-Group"/>
+    <hyperlink ref="E8" r:id="rId13" display="https://www.bookdepository.com/author/John-Kavanagh"/>
+    <hyperlink ref="F8" r:id="rId14" display="https://www.bookdepository.com/publishers/Penguin-Books-Ltd"/>
+    <hyperlink ref="F9" r:id="rId15" display="https://www.bookdepository.com/publishers/Vintage-Publishing"/>
+    <hyperlink ref="E10" r:id="rId16" display="https://www.bookdepository.com/author/Grange-Communications"/>
+    <hyperlink ref="F10" r:id="rId17" display="https://www.bookdepository.com/publishers/Grange-Communications-Ltd"/>
+    <hyperlink ref="E11" r:id="rId18" display="https://www.bookdepository.com/author/Grange-Communications"/>
+    <hyperlink ref="F11" r:id="rId19" display="https://www.bookdepository.com/publishers/Grange-Communications-Ltd"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>
